--- a/Pricing Logic/modules/uploads/module_4_700.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_700.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,25 +37,19 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>مناديل فاميليا سحب تريبل 3 طبقة - 500 منديل</t>
-  </si>
-  <si>
-    <t>مسحوق ليدر عادى لافندر -   1 كجم</t>
-  </si>
-  <si>
-    <t>مسحوق ليدر عادى لافندر - 2 كجم</t>
-  </si>
-  <si>
-    <t>زيت ثمرات خليط - 700 مل</t>
-  </si>
-  <si>
-    <t>الواحة القصيم - 750 جم</t>
-  </si>
-  <si>
-    <t>مولفيكس بريميوم جامبو اقتصادى مقاس5 كبير- 56 حفاضة</t>
-  </si>
-  <si>
-    <t>ماكسى ليمون نعناع - 1 لتر</t>
+    <t>مناديل فاميليا تواليت 2 طبقة 20 رول + 4 رول هدية - 24 رول</t>
+  </si>
+  <si>
+    <t>دهشة صلصة  برطمان - 280 جم</t>
+  </si>
+  <si>
+    <t>امريكانا فول مدمس بالصلصة والتسبيكة - 400 جم</t>
+  </si>
+  <si>
+    <t>تورتا ديلايتس كـيك كاكاو محشو بكريمه الشكولاته ومغطي بالشكولاته - 10 جنية</t>
+  </si>
+  <si>
+    <t>بليزو وايت ويفر رول محـشو بكريمه الفانيليا مغطى بالكراميل والكرسب والشكوكلاته البيضاء - 5 جنية</t>
   </si>
   <si>
     <t>YES</t>
@@ -419,7 +413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -450,155 +444,138 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>8089</v>
+        <v>2539</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D2">
-        <v>415</v>
+        <v>289.75</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>9380</v>
+        <v>5081</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>146.25</v>
+        <v>173.75</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>10124</v>
+        <v>9922</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D4">
-        <v>276.75</v>
+        <v>21.5</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>12924</v>
+        <v>9922</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>585.75</v>
+        <v>516</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>12971</v>
+        <v>24707</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>986.25</v>
+        <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>12971</v>
+        <v>24707</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>65.75</v>
+        <v>864</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>19969</v>
+        <v>24711</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D8">
-        <v>350.5</v>
+        <v>49.25</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>19969</v>
+        <v>24711</v>
       </c>
       <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>886.5</v>
+      </c>
+      <c r="E9" t="s">
         <v>12</v>
-      </c>
-      <c r="C9">
-        <v>29</v>
-      </c>
-      <c r="D9">
-        <v>1051.5</v>
-      </c>
-      <c r="E9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>25278</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10">
-        <v>104</v>
-      </c>
-      <c r="E10" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_700.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_700.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,19 +37,19 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>مناديل فاميليا تواليت 2 طبقة 20 رول + 4 رول هدية - 24 رول</t>
-  </si>
-  <si>
-    <t>دهشة صلصة  برطمان - 280 جم</t>
-  </si>
-  <si>
-    <t>امريكانا فول مدمس بالصلصة والتسبيكة - 400 جم</t>
-  </si>
-  <si>
-    <t>تورتا ديلايتس كـيك كاكاو محشو بكريمه الشكولاته ومغطي بالشكولاته - 10 جنية</t>
-  </si>
-  <si>
-    <t>بليزو وايت ويفر رول محـشو بكريمه الفانيليا مغطى بالكراميل والكرسب والشكوكلاته البيضاء - 5 جنية</t>
+    <t>سفن اب ستار كانز - 320 مل</t>
+  </si>
+  <si>
+    <t>سفن اب - 2.43 لتر</t>
+  </si>
+  <si>
+    <t>كيك شيف دريم - 23 جم</t>
+  </si>
+  <si>
+    <t>سمنة قوت القلوب ابيض - 650 جم</t>
+  </si>
+  <si>
+    <t>ماكسى ليمون نعناع - 1 لتر</t>
   </si>
   <si>
     <t>YES</t>
@@ -413,7 +413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -444,16 +444,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>2539</v>
+        <v>140</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>289.75</v>
+        <v>340.75</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -461,7 +461,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>5081</v>
+        <v>1446</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -470,7 +470,7 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>173.75</v>
+        <v>204.5</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -478,16 +478,16 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>9922</v>
+        <v>8120</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>21.5</v>
+        <v>1536</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -495,16 +495,16 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>9922</v>
+        <v>8120</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>516</v>
+        <v>128</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
@@ -512,69 +512,35 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>24707</v>
+        <v>12142</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>48</v>
+        <v>394.25</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>24707</v>
+        <v>25278</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>864</v>
+        <v>106</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>24711</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8">
-        <v>49.25</v>
-      </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>24711</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>886.5</v>
-      </c>
-      <c r="E9" t="s">
         <v>12</v>
       </c>
     </row>

--- a/Pricing Logic/modules/uploads/module_4_700.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_700.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,19 +37,19 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>سفن اب ستار كانز - 320 مل</t>
-  </si>
-  <si>
-    <t>سفن اب - 2.43 لتر</t>
-  </si>
-  <si>
-    <t>كيك شيف دريم - 23 جم</t>
-  </si>
-  <si>
-    <t>سمنة قوت القلوب ابيض - 650 جم</t>
-  </si>
-  <si>
-    <t>ماكسى ليمون نعناع - 1 لتر</t>
+    <t>عصير بيتى جوافة - 235 مل</t>
+  </si>
+  <si>
+    <t>مسحوق ليدر عادى لافندر 12+1 هدية - 145 جم</t>
+  </si>
+  <si>
+    <t>حفاضات بيبى جوى كلوت مضغوط جامبو مقاس 5 - 52 حفاضة</t>
+  </si>
+  <si>
+    <t>مسحوق ليدر عادى لافندر - 65 جم</t>
+  </si>
+  <si>
+    <t>اولويز الترا سليم بلمسة الاوليفيرا  طويل جدا عرض 12+2 مجانا- 14 فوطة</t>
   </si>
   <si>
     <t>YES</t>
@@ -413,7 +413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -444,7 +444,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -453,7 +453,7 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>340.75</v>
+        <v>195</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -461,16 +461,16 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>1446</v>
+        <v>10609</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>204.5</v>
+        <v>188.75</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -478,16 +478,16 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>8120</v>
+        <v>10720</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D4">
-        <v>1536</v>
+        <v>882.75</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -495,16 +495,16 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>8120</v>
+        <v>10720</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="D5">
-        <v>128</v>
+        <v>294.25</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
@@ -512,7 +512,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>12142</v>
+        <v>10897</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -521,7 +521,7 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>394.25</v>
+        <v>161.25</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
@@ -529,18 +529,35 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>25278</v>
+        <v>21077</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>106</v>
+        <v>729</v>
       </c>
       <c r="E7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>21077</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>60.75</v>
+      </c>
+      <c r="E8" t="s">
         <v>12</v>
       </c>
     </row>

--- a/Pricing Logic/modules/uploads/module_4_700.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_700.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,25 +37,13 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>عصير بيتى جوافة - 235 مل</t>
-  </si>
-  <si>
-    <t>مسحوق ليدر عادى لافندر 12+1 هدية - 145 جم</t>
-  </si>
-  <si>
-    <t>حفاضات بيبى جوى كلوت مضغوط جامبو مقاس 5 - 52 حفاضة</t>
-  </si>
-  <si>
-    <t>مسحوق ليدر عادى لافندر - 65 جم</t>
-  </si>
-  <si>
-    <t>اولويز الترا سليم بلمسة الاوليفيرا  طويل جدا عرض 12+2 مجانا- 14 فوطة</t>
+    <t>شويبس ليمون نعناع جيب - 240 مل</t>
+  </si>
+  <si>
+    <t>بلوبيف الذهبية - 340 جم</t>
   </si>
   <si>
     <t>YES</t>
-  </si>
-  <si>
-    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -413,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -444,7 +432,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>145</v>
+        <v>5490</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -453,15 +441,15 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>195</v>
+        <v>269</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>10609</v>
+        <v>8927</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -470,95 +458,27 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>188.75</v>
+        <v>888</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>10720</v>
+        <v>8927</v>
       </c>
       <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>37</v>
+      </c>
+      <c r="E4" t="s">
         <v>9</v>
-      </c>
-      <c r="C4">
-        <v>29</v>
-      </c>
-      <c r="D4">
-        <v>882.75</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>10720</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5">
-        <v>80</v>
-      </c>
-      <c r="D5">
-        <v>294.25</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>10897</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>161.25</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>21077</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>729</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>21077</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8">
-        <v>10</v>
-      </c>
-      <c r="D8">
-        <v>60.75</v>
-      </c>
-      <c r="E8" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_700.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_700.xlsx
@@ -37,10 +37,10 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>شويبس ليمون نعناع جيب - 240 مل</t>
-  </si>
-  <si>
-    <t>بلوبيف الذهبية - 340 جم</t>
+    <t>جل باهى لافندر - 40 جم</t>
+  </si>
+  <si>
+    <t>تورتا رولز كيك كـاكاو ملفوف محشو بكريمة الفانيايا و مغطي بالشوكولاتة - 5 جنية</t>
   </si>
   <si>
     <t>YES</t>
@@ -432,16 +432,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>5490</v>
+        <v>12373</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>269</v>
+        <v>55.5</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -449,16 +449,16 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>8927</v>
+        <v>24712</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>888</v>
+        <v>49.25</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -466,16 +466,16 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>8927</v>
+        <v>24712</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>37</v>
+        <v>886.5</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>

--- a/Pricing Logic/modules/uploads/module_4_700.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_700.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="24">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,13 +37,55 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>جل باهى لافندر - 40 جم</t>
-  </si>
-  <si>
-    <t>تورتا رولز كيك كـاكاو ملفوف محشو بكريمة الفانيايا و مغطي بالشوكولاتة - 5 جنية</t>
+    <t>عصير جهينة كوكتيل - 235 مل</t>
+  </si>
+  <si>
+    <t>عصير جهينة كوكتيل - 1 لتر</t>
+  </si>
+  <si>
+    <t>عصير جهينة اناناس - 235 مل</t>
+  </si>
+  <si>
+    <t>عصير جهينة اناناس - 1 لتر</t>
+  </si>
+  <si>
+    <t>عدس بجبة الضحى - 500 جم</t>
+  </si>
+  <si>
+    <t>حمص الشام الضحى - 500 جم</t>
+  </si>
+  <si>
+    <t>عصير بست كوكتيل كيس - 190 مل</t>
+  </si>
+  <si>
+    <t>عسل البوادى اسود - 190 جم</t>
+  </si>
+  <si>
+    <t>كيك كمارا تورنيدو كريمة الفانيليا و مربى الفراولة - 5 جنية</t>
+  </si>
+  <si>
+    <t>سندة زيت خليط - 1 لتر</t>
+  </si>
+  <si>
+    <t>بقسماط الضحى ناعم - 300 جم</t>
+  </si>
+  <si>
+    <t>عصير جهينة تفاح كمثرى - 1 لتر</t>
+  </si>
+  <si>
+    <t>عصير جهينة مكس بيرى - 1 لتر</t>
+  </si>
+  <si>
+    <t>مولتو ماجنم فراولة - 15 جنية</t>
+  </si>
+  <si>
+    <t>فيانسيه شامبو 7فى1 اكياس بالليمون والألوفيرا 5 مل</t>
   </si>
   <si>
     <t>YES</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -401,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -432,53 +474,359 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>12373</v>
+        <v>142</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>55.5</v>
+        <v>191.5</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>24712</v>
+        <v>415</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>49.25</v>
+        <v>352</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>24712</v>
+        <v>418</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>886.5</v>
+        <v>214</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>524</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>360.5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>1066</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>52</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>1066</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>1040</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>1067</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>85.75</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>1067</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>1715</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>1776</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>270</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>2103</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>15</v>
+      </c>
+      <c r="D11">
+        <v>90</v>
+      </c>
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>2103</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>2103</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13">
+        <v>16</v>
+      </c>
+      <c r="D13">
+        <v>180</v>
+      </c>
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>2103</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>360</v>
+      </c>
+      <c r="E14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>3104</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>97.75</v>
+      </c>
+      <c r="E15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>6497</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>802</v>
+      </c>
+      <c r="E16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>6957</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>380</v>
+      </c>
+      <c r="E17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>6957</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>7</v>
+      </c>
+      <c r="D18">
+        <v>19</v>
+      </c>
+      <c r="E18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>11643</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>348.25</v>
+      </c>
+      <c r="E19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>11644</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>358</v>
+      </c>
+      <c r="E20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>11855</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>295.5</v>
+      </c>
+      <c r="E21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>21809</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>304</v>
+      </c>
+      <c r="E22" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_700.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_700.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,55 +37,16 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>عصير جهينة كوكتيل - 235 مل</t>
-  </si>
-  <si>
-    <t>عصير جهينة كوكتيل - 1 لتر</t>
-  </si>
-  <si>
-    <t>عصير جهينة اناناس - 235 مل</t>
-  </si>
-  <si>
-    <t>عصير جهينة اناناس - 1 لتر</t>
-  </si>
-  <si>
-    <t>عدس بجبة الضحى - 500 جم</t>
-  </si>
-  <si>
-    <t>حمص الشام الضحى - 500 جم</t>
-  </si>
-  <si>
-    <t>عصير بست كوكتيل كيس - 190 مل</t>
-  </si>
-  <si>
-    <t>عسل البوادى اسود - 190 جم</t>
-  </si>
-  <si>
-    <t>كيك كمارا تورنيدو كريمة الفانيليا و مربى الفراولة - 5 جنية</t>
-  </si>
-  <si>
-    <t>سندة زيت خليط - 1 لتر</t>
-  </si>
-  <si>
-    <t>بقسماط الضحى ناعم - 300 جم</t>
-  </si>
-  <si>
-    <t>عصير جهينة تفاح كمثرى - 1 لتر</t>
-  </si>
-  <si>
-    <t>عصير جهينة مكس بيرى - 1 لتر</t>
-  </si>
-  <si>
-    <t>مولتو ماجنم فراولة - 15 جنية</t>
-  </si>
-  <si>
-    <t>فيانسيه شامبو 7فى1 اكياس بالليمون والألوفيرا 5 مل</t>
+    <t>فريك الضحى - 500 جم</t>
+  </si>
+  <si>
+    <t>صابون جوى عرض خاص  - 165 جم</t>
+  </si>
+  <si>
+    <t>ريحانة برغل- 500 جم</t>
   </si>
   <si>
     <t>YES</t>
-  </si>
-  <si>
-    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -443,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -474,7 +435,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>142</v>
+        <v>1070</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -483,350 +444,95 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>191.5</v>
+        <v>1035</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>415</v>
+        <v>1070</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D3">
-        <v>352</v>
+        <v>51.75</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>418</v>
+        <v>2188</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>214</v>
+        <v>429</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>524</v>
+        <v>2188</v>
       </c>
       <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>35.75</v>
+      </c>
+      <c r="E5" t="s">
         <v>10</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>360.5</v>
-      </c>
-      <c r="E5" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>1066</v>
+        <v>2270</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>52</v>
+        <v>855</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>1066</v>
+        <v>2270</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D7">
-        <v>1040</v>
+        <v>42.75</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>1067</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8">
-        <v>7</v>
-      </c>
-      <c r="D8">
-        <v>85.75</v>
-      </c>
-      <c r="E8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>1067</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9">
-        <v>1715</v>
-      </c>
-      <c r="E9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>1776</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>270</v>
-      </c>
-      <c r="E10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>2103</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11">
-        <v>15</v>
-      </c>
-      <c r="D11">
-        <v>90</v>
-      </c>
-      <c r="E11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>2103</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12">
         <v>10</v>
-      </c>
-      <c r="D12">
-        <v>15</v>
-      </c>
-      <c r="E12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>2103</v>
-      </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13">
-        <v>16</v>
-      </c>
-      <c r="D13">
-        <v>180</v>
-      </c>
-      <c r="E13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>2103</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>360</v>
-      </c>
-      <c r="E14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <v>3104</v>
-      </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>97.75</v>
-      </c>
-      <c r="E15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
-        <v>6497</v>
-      </c>
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>802</v>
-      </c>
-      <c r="E16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17">
-        <v>6957</v>
-      </c>
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-      <c r="D17">
-        <v>380</v>
-      </c>
-      <c r="E17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18">
-        <v>6957</v>
-      </c>
-      <c r="B18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18">
-        <v>7</v>
-      </c>
-      <c r="D18">
-        <v>19</v>
-      </c>
-      <c r="E18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19">
-        <v>11643</v>
-      </c>
-      <c r="B19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <v>348.25</v>
-      </c>
-      <c r="E19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20">
-        <v>11644</v>
-      </c>
-      <c r="B20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20">
-        <v>358</v>
-      </c>
-      <c r="E20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21">
-        <v>11855</v>
-      </c>
-      <c r="B21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21">
-        <v>295.5</v>
-      </c>
-      <c r="E21" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22">
-        <v>21809</v>
-      </c>
-      <c r="B22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22">
-        <v>304</v>
-      </c>
-      <c r="E22" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_700.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_700.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,16 +37,28 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>فريك الضحى - 500 جم</t>
-  </si>
-  <si>
-    <t>صابون جوى عرض خاص  - 165 جم</t>
-  </si>
-  <si>
-    <t>ريحانة برغل- 500 جم</t>
+    <t>مربى الرشيدى الميزان فراولة - 700 جم</t>
+  </si>
+  <si>
+    <t>تونة صن شاين اكسبريس مفتتة بارد - 150 جم</t>
+  </si>
+  <si>
+    <t>اوكسى اوتوماتيك لافندر 8 ك + 1 ك - 9 كجم</t>
+  </si>
+  <si>
+    <t>سمنة حبوبة نباتى صفراء - 300 جم</t>
+  </si>
+  <si>
+    <t>كاتشب هاينز بطعم الشطة نار - 125 جم</t>
+  </si>
+  <si>
+    <t>فينجرز شيكولاتة بيضاء - 5 جنية</t>
   </si>
   <si>
     <t>YES</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -404,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -435,7 +447,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>1070</v>
+        <v>1051</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -444,95 +456,180 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>1035</v>
+        <v>538.75</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>1070</v>
+        <v>3558</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D3">
-        <v>51.75</v>
+        <v>28.25</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>2188</v>
+        <v>3558</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D4">
-        <v>429</v>
+        <v>678</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>2188</v>
+        <v>3558</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D5">
-        <v>35.75</v>
+        <v>339</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>2270</v>
+        <v>3558</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>855</v>
+        <v>1356</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>2270</v>
+        <v>4327</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
       <c r="C7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>42.75</v>
+        <v>912</v>
       </c>
       <c r="E7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>11403</v>
+      </c>
+      <c r="B8" t="s">
         <v>10</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>353</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>11526</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>19.5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>11526</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>390</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>21687</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>26.75</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>21687</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>321</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_700.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_700.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,28 +37,19 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>مربى الرشيدى الميزان فراولة - 700 جم</t>
-  </si>
-  <si>
-    <t>تونة صن شاين اكسبريس مفتتة بارد - 150 جم</t>
-  </si>
-  <si>
-    <t>اوكسى اوتوماتيك لافندر 8 ك + 1 ك - 9 كجم</t>
-  </si>
-  <si>
-    <t>سمنة حبوبة نباتى صفراء - 300 جم</t>
-  </si>
-  <si>
-    <t>كاتشب هاينز بطعم الشطة نار - 125 جم</t>
-  </si>
-  <si>
-    <t>فينجرز شيكولاتة بيضاء - 5 جنية</t>
+    <t>مكرونة حواء خواتم - 400 جم</t>
+  </si>
+  <si>
+    <t>بن ابو عوف فاتح سادة - 100 جم</t>
+  </si>
+  <si>
+    <t>سمنة حبوبة نباتى صفراء برطمان - 600 جم</t>
+  </si>
+  <si>
+    <t>فرست وان بطعم التفاح - 250 مل</t>
   </si>
   <si>
     <t>YES</t>
-  </si>
-  <si>
-    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -416,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,189 +438,87 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>1051</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>538.75</v>
+        <v>262.5</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>3558</v>
+        <v>3900</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>5024</v>
+      </c>
+      <c r="E3" t="s">
         <v>11</v>
-      </c>
-      <c r="D3">
-        <v>28.25</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>3558</v>
+        <v>3900</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>678</v>
+        <v>628</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>3558</v>
+        <v>11492</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>339</v>
+        <v>334.75</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>3558</v>
+        <v>12055</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>1356</v>
+        <v>51.5</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>4327</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>912</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>11403</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>353</v>
-      </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>11526</v>
-      </c>
-      <c r="B9" t="s">
         <v>11</v>
-      </c>
-      <c r="C9">
-        <v>10</v>
-      </c>
-      <c r="D9">
-        <v>19.5</v>
-      </c>
-      <c r="E9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>11526</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>390</v>
-      </c>
-      <c r="E10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>21687</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11">
-        <v>3</v>
-      </c>
-      <c r="D11">
-        <v>26.75</v>
-      </c>
-      <c r="E11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>21687</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>321</v>
-      </c>
-      <c r="E12" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_700.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_700.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,16 +37,13 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>مكرونة حواء خواتم - 400 جم</t>
-  </si>
-  <si>
-    <t>بن ابو عوف فاتح سادة - 100 جم</t>
-  </si>
-  <si>
-    <t>سمنة حبوبة نباتى صفراء برطمان - 600 جم</t>
-  </si>
-  <si>
-    <t>فرست وان بطعم التفاح - 250 مل</t>
+    <t>سبرايت جيب - 240 مل</t>
+  </si>
+  <si>
+    <t>مناديل فاميليا مطبخ كلاسيك 5 رول + 1 رول هدية - 6 رول</t>
+  </si>
+  <si>
+    <t>فول حبوبة تدميس - 500 جم</t>
   </si>
   <si>
     <t>YES</t>
@@ -407,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -438,87 +435,53 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>36</v>
+        <v>616</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>262.5</v>
+        <v>295</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>3900</v>
+        <v>1886</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>5024</v>
+        <v>199.5</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>3900</v>
+        <v>2324</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>628</v>
+        <v>204</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>11492</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>334.75</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>12055</v>
-      </c>
-      <c r="B6" t="s">
         <v>10</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>51.5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_700.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_700.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,13 +37,19 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>سبرايت جيب - 240 مل</t>
-  </si>
-  <si>
-    <t>مناديل فاميليا مطبخ كلاسيك 5 رول + 1 رول هدية - 6 رول</t>
-  </si>
-  <si>
-    <t>فول حبوبة تدميس - 500 جم</t>
+    <t>جبنة عبور لاند فيتا بيضاء - 500 جم</t>
+  </si>
+  <si>
+    <t>جبنة عبور لاند فيتا بيضاء - 250 جم</t>
+  </si>
+  <si>
+    <t>بيبسى مينى تربو - 250 مل</t>
+  </si>
+  <si>
+    <t>مناديل بابيا تواليت 10 رول + 2 رول هدية - 12 رول</t>
+  </si>
+  <si>
+    <t>برغل الضحى ناعم - 500 جم</t>
   </si>
   <si>
     <t>YES</t>
@@ -404,7 +410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -435,7 +441,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>616</v>
+        <v>82</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -444,15 +450,15 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>295</v>
+        <v>481.5</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>1886</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -461,15 +467,15 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>199.5</v>
+        <v>545</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>2324</v>
+        <v>1007</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -478,10 +484,61 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>204</v>
+        <v>109.75</v>
       </c>
       <c r="E4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>4033</v>
+      </c>
+      <c r="B5" t="s">
         <v>10</v>
+      </c>
+      <c r="C5">
+        <v>29</v>
+      </c>
+      <c r="D5">
+        <v>285.5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>11409</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>1105</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>11409</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>55.25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_700.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_700.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="34">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,19 +37,82 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>جبنة عبور لاند فيتا بيضاء - 500 جم</t>
-  </si>
-  <si>
-    <t>جبنة عبور لاند فيتا بيضاء - 250 جم</t>
-  </si>
-  <si>
-    <t>بيبسى مينى تربو - 250 مل</t>
-  </si>
-  <si>
-    <t>مناديل بابيا تواليت 10 رول + 2 رول هدية - 12 رول</t>
-  </si>
-  <si>
-    <t>برغل الضحى ناعم - 500 جم</t>
+    <t>كلوريتا  كلور حجم جديد - 1 كجم</t>
+  </si>
+  <si>
+    <t>كلوركس كلور - 1.2 لتر</t>
+  </si>
+  <si>
+    <t>كلوركس 5*1 ليمون باوش - 400 مل</t>
+  </si>
+  <si>
+    <t>كلوركس 5*1  لافندر باوش - 400 مل</t>
+  </si>
+  <si>
+    <t>كلوركس 5*1 لافندر - 3 لتر</t>
+  </si>
+  <si>
+    <t>كلوركس 5*1 نسيم البحر - 3 لتر</t>
+  </si>
+  <si>
+    <t>كلوروكس باودر - 250 جم</t>
+  </si>
+  <si>
+    <t>كلوركس جل نعناع - 750 مل</t>
+  </si>
+  <si>
+    <t>كلوركس متعدد الاستخدامات - 1 لتر</t>
+  </si>
+  <si>
+    <t>كلوركس 5*1 ليمون - 700 مل</t>
+  </si>
+  <si>
+    <t>سوفى ماكسى بالمسك طويل سميكة عرض خاص - 16 فوطة</t>
+  </si>
+  <si>
+    <t>كلوركس كلور ابيض ليمون اصفر - 950 مل</t>
+  </si>
+  <si>
+    <t>كلوركس كلور ابيض ليمون - 4 لتر</t>
+  </si>
+  <si>
+    <t>كلوركس الوان برائحة الزهور - 475 مل</t>
+  </si>
+  <si>
+    <t>كلوركس كلور الوان برائحة الزهور - 2 لتر</t>
+  </si>
+  <si>
+    <t>كلوركس 5*1 نعناع اخضر - 400 مل</t>
+  </si>
+  <si>
+    <t>كلوركس 5*1 نسيم البحر - 400 مل</t>
+  </si>
+  <si>
+    <t>كلوركس 5*1 نسيم البحر ازرق - 700 مل</t>
+  </si>
+  <si>
+    <t>كلوركس جل زهور - 750 مل</t>
+  </si>
+  <si>
+    <t>مناديل فاميليا سحب تريبل 3 طبقة - 500 منديل</t>
+  </si>
+  <si>
+    <t>كلوركس الوان - 750 مل</t>
+  </si>
+  <si>
+    <t>هانم سمنة بطعم الزبدة الصفراء ظرف - 55 جم</t>
+  </si>
+  <si>
+    <t>كلوركس جل + منظف ليمون - 400 مل</t>
+  </si>
+  <si>
+    <t>كلوركس جل+ منظف زهور - 400 مل</t>
+  </si>
+  <si>
+    <t>كلوركس جل + منظف نعناع  - 400 مل</t>
+  </si>
+  <si>
+    <t>كلوركس ابيض لافندر - 4 لتر</t>
   </si>
   <si>
     <t>YES</t>
@@ -410,7 +473,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -441,104 +504,461 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>82</v>
+        <v>382</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>481.5</v>
+        <v>182</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>83</v>
+        <v>385</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>545</v>
+        <v>387</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>1007</v>
+        <v>2658</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>109.75</v>
+        <v>378.25</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>4033</v>
+        <v>2661</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
       <c r="C5">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>285.5</v>
+        <v>378.5</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>11409</v>
+        <v>2663</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>1105</v>
+        <v>508</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>11409</v>
+        <v>2664</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>55.25</v>
+        <v>508</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>2666</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>735</v>
+      </c>
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>2669</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>509</v>
+      </c>
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>2670</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>447</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>2673</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>507</v>
+      </c>
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>2912</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>600</v>
+      </c>
+      <c r="E12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>2912</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>75</v>
+      </c>
+      <c r="E13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>3386</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>323</v>
+      </c>
+      <c r="E14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>3387</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>211</v>
+      </c>
+      <c r="E15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>3390</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>267</v>
+      </c>
+      <c r="E16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>3392</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>618</v>
+      </c>
+      <c r="E17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>3395</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>375</v>
+      </c>
+      <c r="E18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>3396</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>376.25</v>
+      </c>
+      <c r="E19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>3399</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>507</v>
+      </c>
+      <c r="E20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>6946</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>509</v>
+      </c>
+      <c r="E21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>8089</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>427</v>
+      </c>
+      <c r="E22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>10254</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>475</v>
+      </c>
+      <c r="E23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>11967</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>229</v>
+      </c>
+      <c r="E24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>23904</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>305</v>
+      </c>
+      <c r="E25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>23905</v>
+      </c>
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>305</v>
+      </c>
+      <c r="E26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>23906</v>
+      </c>
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>305</v>
+      </c>
+      <c r="E27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>23908</v>
+      </c>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>211</v>
+      </c>
+      <c r="E28" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_700.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_700.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,13 +37,7 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>تونة صن شاين مفتتة حار - 185 جم</t>
-  </si>
-  <si>
-    <t>كلوريل كلور 2*1 ليمون اصفر - 1 كجم</t>
-  </si>
-  <si>
-    <t>ستينج فراولة مينى تربو - 250 مل</t>
+    <t>ميزة دقيق - 1 كجم</t>
   </si>
   <si>
     <t>YES</t>
@@ -404,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -435,70 +429,19 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>98</v>
+        <v>5097</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>40</v>
+        <v>183.5</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>98</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1920</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>1853</v>
-      </c>
-      <c r="B4" t="s">
         <v>8</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>154.75</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>6158</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>111.25</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_700.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_700.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,7 +37,10 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>ميزة دقيق - 1 كجم</t>
+    <t>ستينج فراولة مينى تربو - 250 مل</t>
+  </si>
+  <si>
+    <t>مناديل سمايل سحب 550 منديل</t>
   </si>
   <si>
     <t>YES</t>
@@ -398,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -429,7 +432,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>5097</v>
+        <v>6158</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -438,10 +441,27 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>183.5</v>
+        <v>112.5</v>
       </c>
       <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>12212</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
+      </c>
+      <c r="C3">
+        <v>29</v>
+      </c>
+      <c r="D3">
+        <v>257.5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_700.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_700.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="14">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,10 +37,22 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>ستينج فراولة مينى تربو - 250 مل</t>
-  </si>
-  <si>
-    <t>مناديل سمايل سحب 550 منديل</t>
+    <t>فريك الضحى - 500 جم</t>
+  </si>
+  <si>
+    <t>حفاضات مولفيكس ماكسى مقاس 4 - 80 حفاضة</t>
+  </si>
+  <si>
+    <t>حفاضات مولفيكس جونيور مقاس 5 - 70 حفاضة</t>
+  </si>
+  <si>
+    <t>سكر حبوبة ابيض فاخر - 1 كجم</t>
+  </si>
+  <si>
+    <t>الرشيدي الميزان حلاوة طحينية- 760 جم</t>
+  </si>
+  <si>
+    <t>حفاضات بى بم بانتس مقاس 5 - 72 حفاضة</t>
   </si>
   <si>
     <t>YES</t>
@@ -401,7 +413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -432,36 +444,189 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>6158</v>
+        <v>1070</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D2">
-        <v>112.5</v>
+        <v>51.5</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>12212</v>
+        <v>1070</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>1030</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>1706</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C3">
+      <c r="C4">
+        <v>25</v>
+      </c>
+      <c r="D4">
+        <v>402.25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>1706</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>804.5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>9910</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
         <v>29</v>
       </c>
-      <c r="D3">
-        <v>257.5</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="D6">
+        <v>798.5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>9910</v>
+      </c>
+      <c r="B7" t="s">
         <v>9</v>
+      </c>
+      <c r="C7">
+        <v>25</v>
+      </c>
+      <c r="D7">
+        <v>399.25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>11793</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>296.25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>23599</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>854</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>23599</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>106.75</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>23994</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>25</v>
+      </c>
+      <c r="D11">
+        <v>380.25</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>23994</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>29</v>
+      </c>
+      <c r="D12">
+        <v>760.5</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_700.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_700.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,22 +37,7 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>فريك الضحى - 500 جم</t>
-  </si>
-  <si>
-    <t>حفاضات مولفيكس ماكسى مقاس 4 - 80 حفاضة</t>
-  </si>
-  <si>
-    <t>حفاضات مولفيكس جونيور مقاس 5 - 70 حفاضة</t>
-  </si>
-  <si>
-    <t>سكر حبوبة ابيض فاخر - 1 كجم</t>
-  </si>
-  <si>
-    <t>الرشيدي الميزان حلاوة طحينية- 760 جم</t>
-  </si>
-  <si>
-    <t>حفاضات بى بم بانتس مقاس 5 - 72 حفاضة</t>
+    <t>مناديل فاميليا تواليت مضغوط 10 رول + 2 رول هدية - 12 رول</t>
   </si>
   <si>
     <t>YES</t>
@@ -413,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -444,189 +429,19 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>1070</v>
+        <v>13252</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="D2">
-        <v>51.5</v>
+        <v>265</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>1070</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>1030</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>1706</v>
-      </c>
-      <c r="B4" t="s">
         <v>8</v>
-      </c>
-      <c r="C4">
-        <v>25</v>
-      </c>
-      <c r="D4">
-        <v>402.25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>1706</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>804.5</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>9910</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6">
-        <v>29</v>
-      </c>
-      <c r="D6">
-        <v>798.5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>9910</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7">
-        <v>25</v>
-      </c>
-      <c r="D7">
-        <v>399.25</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>11793</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8">
-        <v>296.25</v>
-      </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>23599</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>854</v>
-      </c>
-      <c r="E9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>23599</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10">
-        <v>10</v>
-      </c>
-      <c r="D10">
-        <v>106.75</v>
-      </c>
-      <c r="E10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>23994</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11">
-        <v>25</v>
-      </c>
-      <c r="D11">
-        <v>380.25</v>
-      </c>
-      <c r="E11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>23994</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12">
-        <v>29</v>
-      </c>
-      <c r="D12">
-        <v>760.5</v>
-      </c>
-      <c r="E12" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_700.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_700.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,7 +37,13 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>مناديل فاميليا تواليت مضغوط 10 رول + 2 رول هدية - 12 رول</t>
+    <t>اورجانو خل - 900 مل</t>
+  </si>
+  <si>
+    <t>مشروب بودرة تانج  برتقال جديد 2 لتر - 40 جرام</t>
+  </si>
+  <si>
+    <t>تورتا ديلايتس كـيك كاكاو محشو بكريمه الشكولاته ومغطي بالشكولاته - 10 جنية</t>
   </si>
   <si>
     <t>YES</t>
@@ -398,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -429,19 +435,87 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>13252</v>
+        <v>5666</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>265</v>
+        <v>134</v>
       </c>
       <c r="E2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>24126</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1252.5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>24126</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>125.25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>24707</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>49.5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>24707</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>891</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_700.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_700.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,13 +37,22 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>اورجانو خل - 900 مل</t>
-  </si>
-  <si>
-    <t>مشروب بودرة تانج  برتقال جديد 2 لتر - 40 جرام</t>
-  </si>
-  <si>
-    <t>تورتا ديلايتس كـيك كاكاو محشو بكريمه الشكولاته ومغطي بالشكولاته - 10 جنية</t>
+    <t>ستينج فراولة مينى تربو - 250 مل</t>
+  </si>
+  <si>
+    <t>شاى الكبوس ناعم - 30 جم</t>
+  </si>
+  <si>
+    <t>راني عصير مشروب خوخ - 235 مل</t>
+  </si>
+  <si>
+    <t>بيج كولا  ليمون- 200 مل</t>
+  </si>
+  <si>
+    <t>بيج كولا ليمون - 360 مل</t>
+  </si>
+  <si>
+    <t>بيج كولا برتقال - 360 مل</t>
   </si>
   <si>
     <t>YES</t>
@@ -404,7 +413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -435,7 +444,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>5666</v>
+        <v>6158</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -444,15 +453,15 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>24126</v>
+        <v>9082</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -461,15 +470,15 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>1252.5</v>
+        <v>1762.5</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>24126</v>
+        <v>9082</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -478,44 +487,78 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>125.25</v>
+        <v>11.75</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>24707</v>
+        <v>11288</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>49.5</v>
+        <v>316</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>24707</v>
+        <v>11390</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>891</v>
+        <v>135</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>23261</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>98.5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>23262</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>98.75</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
